--- a/Yeni Veri/Q-4-calibrated.xlsx
+++ b/Yeni Veri/Q-4-calibrated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calibrated Results" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Human Reference (5 samples)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Calibrated Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Human Reference (5 samples)" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,7 +501,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>13.62796276819653</v>
+        <v>13.62796276819645</v>
       </c>
     </row>
     <row r="3">
@@ -529,7 +529,7 @@
         <v>13</v>
       </c>
       <c r="H3" t="n">
-        <v>11.37619778802076</v>
+        <v>11.37622614321629</v>
       </c>
     </row>
     <row r="4">
@@ -557,7 +557,7 @@
         <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>13.18872007096653</v>
+        <v>13.18877413425333</v>
       </c>
     </row>
     <row r="5">
@@ -609,7 +609,7 @@
         <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00124235391231</v>
+        <v>15.00132212529036</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>13.31938114351614</v>
+        <v>13.3194285514899</v>
       </c>
     </row>
     <row r="9">
@@ -689,7 +689,7 @@
         <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>12.65590019849062</v>
+        <v>12.65595262132089</v>
       </c>
     </row>
     <row r="10">
@@ -717,7 +717,7 @@
         <v>13</v>
       </c>
       <c r="H10" t="n">
-        <v>9.955658722723797</v>
+        <v>9.955641403888968</v>
       </c>
     </row>
     <row r="11">
@@ -745,7 +745,7 @@
         <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>15.13190342646191</v>
+        <v>15.13197654252693</v>
       </c>
     </row>
     <row r="12">
@@ -773,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="H12" t="n">
-        <v>14.11352316109126</v>
+        <v>14.11355889889548</v>
       </c>
     </row>
     <row r="13">
@@ -829,7 +829,7 @@
         <v>12</v>
       </c>
       <c r="H14" t="n">
-        <v>12.65834023273568</v>
+        <v>12.65845786161971</v>
       </c>
     </row>
     <row r="15">
@@ -885,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="H16" t="n">
-        <v>12.65590019849062</v>
+        <v>12.65595262132089</v>
       </c>
     </row>
     <row r="17">
@@ -913,7 +913,7 @@
         <v>13</v>
       </c>
       <c r="H17" t="n">
-        <v>10.48847859519972</v>
+        <v>10.4884629168214</v>
       </c>
     </row>
     <row r="18">
@@ -941,7 +941,7 @@
         <v>13</v>
       </c>
       <c r="H18" t="n">
-        <v>13.98286208854166</v>
+        <v>13.9829044816589</v>
       </c>
     </row>
     <row r="19">
@@ -969,7 +969,7 @@
         <v>12</v>
       </c>
       <c r="H19" t="n">
-        <v>12.22003931942213</v>
+        <v>12.22008711315409</v>
       </c>
     </row>
     <row r="20">
@@ -997,7 +997,7 @@
         <v>13</v>
       </c>
       <c r="H20" t="n">
-        <v>12.07676263034997</v>
+        <v>12.07672361163255</v>
       </c>
     </row>
     <row r="21">
@@ -1025,7 +1025,7 @@
         <v>12</v>
       </c>
       <c r="H21" t="n">
-        <v>17.8447605187513</v>
+        <v>17.84499684424383</v>
       </c>
     </row>
     <row r="22">
@@ -1109,7 +1109,7 @@
         <v>13</v>
       </c>
       <c r="H24" t="n">
-        <v>14.77700410611678</v>
+        <v>14.77703482906448</v>
       </c>
     </row>
     <row r="25">
@@ -1193,7 +1193,7 @@
         <v>13</v>
       </c>
       <c r="H27" t="n">
-        <v>13.85220101599205</v>
+        <v>13.85225006442233</v>
       </c>
     </row>
     <row r="28">
@@ -1277,7 +1277,7 @@
         <v>12</v>
       </c>
       <c r="H30" t="n">
-        <v>13.36908065734239</v>
+        <v>13.36915917402213</v>
       </c>
     </row>
     <row r="31">
@@ -1305,7 +1305,7 @@
         <v>12</v>
       </c>
       <c r="H31" t="n">
-        <v>10.05261771613123</v>
+        <v>10.0525974086546</v>
       </c>
     </row>
     <row r="32">
@@ -1333,7 +1333,7 @@
         <v>13</v>
       </c>
       <c r="H32" t="n">
-        <v>11.50685886057036</v>
+        <v>11.50688056045286</v>
       </c>
     </row>
     <row r="33">
@@ -1361,7 +1361,7 @@
         <v>13</v>
       </c>
       <c r="H33" t="n">
-        <v>12.65590019849062</v>
+        <v>12.65595262132089</v>
       </c>
     </row>
     <row r="34">
@@ -1473,7 +1473,7 @@
         <v>13</v>
       </c>
       <c r="H37" t="n">
-        <v>12.78656127104022</v>
+        <v>12.78660703855746</v>
       </c>
     </row>
     <row r="38">
@@ -1525,7 +1525,7 @@
         <v>13</v>
       </c>
       <c r="H39" t="n">
-        <v>10.48847859519972</v>
+        <v>10.4884629168214</v>
       </c>
     </row>
     <row r="40">
@@ -1581,7 +1581,7 @@
         <v>13</v>
       </c>
       <c r="H41" t="n">
-        <v>13.31938114351614</v>
+        <v>13.3194285514899</v>
       </c>
     </row>
     <row r="42">
@@ -1609,7 +1609,7 @@
         <v>12</v>
       </c>
       <c r="H42" t="n">
-        <v>11.55655837439661</v>
+        <v>11.55661118298509</v>
       </c>
     </row>
     <row r="43">
@@ -1689,7 +1689,7 @@
         <v>12</v>
       </c>
       <c r="H45" t="n">
-        <v>7.707275560709541</v>
+        <v>7.707227904685132</v>
       </c>
     </row>
     <row r="46">
@@ -1717,7 +1717,7 @@
         <v>14</v>
       </c>
       <c r="H46" t="n">
-        <v>16.98830337082736</v>
+        <v>16.98842679002106</v>
       </c>
     </row>
     <row r="47">
@@ -1745,7 +1745,7 @@
         <v>12</v>
       </c>
       <c r="H47" t="n">
-        <v>15.05094186773856</v>
+        <v>15.05105274782259</v>
       </c>
     </row>
     <row r="48">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="H48" t="n">
-        <v>10.61913966774932</v>
+        <v>10.61911733405798</v>
       </c>
     </row>
     <row r="49">
@@ -1801,7 +1801,7 @@
         <v>13</v>
       </c>
       <c r="H49" t="n">
-        <v>9.694336577624592</v>
+        <v>9.694332569415824</v>
       </c>
     </row>
     <row r="50">
@@ -1829,7 +1829,7 @@
         <v>13</v>
       </c>
       <c r="H50" t="n">
-        <v>7.124756174407376</v>
+        <v>7.124675769220471</v>
       </c>
     </row>
     <row r="51">
@@ -1857,7 +1857,7 @@
         <v>13</v>
       </c>
       <c r="H51" t="n">
-        <v>13.98286208854166</v>
+        <v>13.9829044816589</v>
       </c>
     </row>
     <row r="52">
@@ -1885,7 +1885,7 @@
         <v>13</v>
       </c>
       <c r="H52" t="n">
-        <v>12.43166195069509</v>
+        <v>12.43166532509501</v>
       </c>
     </row>
     <row r="53">
@@ -1965,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="H55" t="n">
-        <v>13.36908065734239</v>
+        <v>13.36915917402213</v>
       </c>
     </row>
     <row r="56">
@@ -1993,7 +1993,7 @@
         <v>12</v>
       </c>
       <c r="H56" t="n">
-        <v>11.42589730184701</v>
+        <v>11.42595676574852</v>
       </c>
     </row>
     <row r="57">
@@ -2021,7 +2021,7 @@
         <v>11</v>
       </c>
       <c r="H57" t="n">
-        <v>12.97953747393864</v>
+        <v>12.97970116261123</v>
       </c>
     </row>
     <row r="58">
@@ -2049,7 +2049,7 @@
         <v>13</v>
       </c>
       <c r="H58" t="n">
-        <v>13.67428046386126</v>
+        <v>13.67437026495235</v>
       </c>
     </row>
     <row r="59">
@@ -2101,7 +2101,7 @@
         <v>12</v>
       </c>
       <c r="H60" t="n">
-        <v>8.323497026153875</v>
+        <v>8.323478452620728</v>
       </c>
     </row>
     <row r="61">
@@ -2129,7 +2129,7 @@
         <v>13</v>
       </c>
       <c r="H61" t="n">
-        <v>12.96448182317101</v>
+        <v>12.96448683802744</v>
       </c>
     </row>
     <row r="62">
@@ -2157,7 +2157,7 @@
         <v>14</v>
       </c>
       <c r="H62" t="n">
-        <v>10.9243394742682</v>
+        <v>10.9243284249882</v>
       </c>
     </row>
     <row r="63">
@@ -2185,7 +2185,7 @@
         <v>13</v>
       </c>
       <c r="H63" t="n">
-        <v>8.01247536722842</v>
+        <v>8.01243899561536</v>
       </c>
     </row>
     <row r="64">
@@ -2213,7 +2213,7 @@
         <v>13</v>
       </c>
       <c r="H64" t="n">
-        <v>13.85220101599205</v>
+        <v>13.85225006442233</v>
       </c>
     </row>
     <row r="65">
@@ -2241,7 +2241,7 @@
         <v>13</v>
       </c>
       <c r="H65" t="n">
-        <v>11.32893830843957</v>
+        <v>11.32900076098288</v>
       </c>
     </row>
     <row r="66">
@@ -2297,7 +2297,7 @@
         <v>12</v>
       </c>
       <c r="H67" t="n">
-        <v>12.04211876729135</v>
+        <v>12.04220731368411</v>
       </c>
     </row>
     <row r="68">
@@ -2401,7 +2401,7 @@
         <v>12</v>
       </c>
       <c r="H71" t="n">
-        <v>14.03256160236791</v>
+        <v>14.03263510419113</v>
       </c>
     </row>
     <row r="72">
@@ -2429,7 +2429,7 @@
         <v>13</v>
       </c>
       <c r="H72" t="n">
-        <v>13.31938114351614</v>
+        <v>13.3194285514899</v>
       </c>
     </row>
     <row r="73">
@@ -2485,7 +2485,7 @@
         <v>14</v>
       </c>
       <c r="H74" t="n">
-        <v>11.58782041929372</v>
+        <v>11.58780435515721</v>
       </c>
     </row>
     <row r="75">
@@ -2541,7 +2541,7 @@
         <v>14</v>
       </c>
       <c r="H76" t="n">
-        <v>12.73686175721397</v>
+        <v>12.73687641602524</v>
       </c>
     </row>
     <row r="77">
@@ -2653,7 +2653,7 @@
         <v>13</v>
       </c>
       <c r="H80" t="n">
-        <v>9.292177777698276</v>
+        <v>9.292165473719962</v>
       </c>
     </row>
     <row r="81">
@@ -2737,7 +2737,7 @@
         <v>13</v>
       </c>
       <c r="H83" t="n">
-        <v>13.18872007096653</v>
+        <v>13.18877413425333</v>
       </c>
     </row>
     <row r="84">
@@ -2765,7 +2765,7 @@
         <v>12</v>
       </c>
       <c r="H84" t="n">
-        <v>10.40751703647636</v>
+        <v>10.40753912211706</v>
       </c>
     </row>
     <row r="85">
@@ -2793,7 +2793,7 @@
         <v>12</v>
       </c>
       <c r="H85" t="n">
-        <v>10.40751703647636</v>
+        <v>10.40753912211706</v>
       </c>
     </row>
     <row r="86">
@@ -2821,7 +2821,7 @@
         <v>13</v>
       </c>
       <c r="H86" t="n">
-        <v>14.51568196101758</v>
+        <v>14.51572599459134</v>
       </c>
     </row>
     <row r="87">
@@ -2849,7 +2849,7 @@
         <v>12</v>
       </c>
       <c r="H87" t="n">
-        <v>13.36908065734239</v>
+        <v>13.36915917402213</v>
       </c>
     </row>
     <row r="88">
@@ -2877,7 +2877,7 @@
         <v>13</v>
       </c>
       <c r="H88" t="n">
-        <v>11.63751993311997</v>
+        <v>11.63753497768943</v>
       </c>
     </row>
     <row r="89">
@@ -2905,7 +2905,7 @@
         <v>13</v>
       </c>
       <c r="H89" t="n">
-        <v>13.31938114351614</v>
+        <v>13.3194285514899</v>
       </c>
     </row>
     <row r="90">
@@ -2961,7 +2961,7 @@
         <v>13</v>
       </c>
       <c r="H91" t="n">
-        <v>11.50685886057036</v>
+        <v>11.50688056045286</v>
       </c>
     </row>
     <row r="92">
@@ -2989,7 +2989,7 @@
         <v>12</v>
       </c>
       <c r="H92" t="n">
-        <v>10.53817810902596</v>
+        <v>10.53819353935363</v>
       </c>
     </row>
     <row r="93">
@@ -3045,7 +3045,7 @@
         <v>13</v>
       </c>
       <c r="H94" t="n">
-        <v>13.98286208854166</v>
+        <v>13.9829044816589</v>
       </c>
     </row>
     <row r="95">
@@ -3073,7 +3073,7 @@
         <v>11</v>
       </c>
       <c r="H95" t="n">
-        <v>12.13907776069878</v>
+        <v>12.13916331844975</v>
       </c>
     </row>
     <row r="96">
@@ -3101,7 +3101,7 @@
         <v>12</v>
       </c>
       <c r="H96" t="n">
-        <v>12.17277983984095</v>
+        <v>12.17286173092069</v>
       </c>
     </row>
     <row r="97">
@@ -3129,7 +3129,7 @@
         <v>13</v>
       </c>
       <c r="H97" t="n">
-        <v>12.17033980559588</v>
+        <v>12.17035649062187</v>
       </c>
     </row>
     <row r="98">
@@ -3157,7 +3157,7 @@
         <v>13</v>
       </c>
       <c r="H98" t="n">
-        <v>15.00124235391231</v>
+        <v>15.00132212529036</v>
       </c>
     </row>
     <row r="99">
@@ -3185,7 +3185,7 @@
         <v>13</v>
       </c>
       <c r="H99" t="n">
-        <v>10.71271684299524</v>
+        <v>10.71275021304729</v>
       </c>
     </row>
     <row r="100">
@@ -3241,7 +3241,7 @@
         <v>13</v>
       </c>
       <c r="H101" t="n">
-        <v>13.31938114351614</v>
+        <v>13.3194285514899</v>
       </c>
     </row>
     <row r="102">
@@ -3269,7 +3269,7 @@
         <v>13</v>
       </c>
       <c r="H102" t="n">
-        <v>13.18872007096653</v>
+        <v>13.18877413425333</v>
       </c>
     </row>
     <row r="103">
@@ -3377,7 +3377,7 @@
         <v>13</v>
       </c>
       <c r="H106" t="n">
-        <v>11.15195954022524</v>
+        <v>11.15193884699041</v>
       </c>
     </row>
     <row r="107">
@@ -3405,7 +3405,7 @@
         <v>15</v>
       </c>
       <c r="H107" t="n">
-        <v>12.0236812983622</v>
+        <v>12.023669863324</v>
       </c>
     </row>
     <row r="108">
@@ -3433,7 +3433,7 @@
         <v>12</v>
       </c>
       <c r="H108" t="n">
-        <v>13.9019005298183</v>
+        <v>13.90198068695456</v>
       </c>
     </row>
     <row r="109">
@@ -3461,7 +3461,7 @@
         <v>13</v>
       </c>
       <c r="H109" t="n">
-        <v>11.50685886057036</v>
+        <v>11.50688056045286</v>
       </c>
     </row>
     <row r="110">
@@ -3489,7 +3489,7 @@
         <v>13</v>
       </c>
       <c r="H110" t="n">
-        <v>13.45004221606574</v>
+        <v>13.45008296872647</v>
       </c>
     </row>
     <row r="111">
@@ -3517,7 +3517,7 @@
         <v>13</v>
       </c>
       <c r="H111" t="n">
-        <v>8.01247536722842</v>
+        <v>8.01243899561536</v>
       </c>
     </row>
     <row r="112">
@@ -3573,7 +3573,7 @@
         <v>12</v>
       </c>
       <c r="H113" t="n">
-        <v>16.0693221331092</v>
+        <v>16.06947039145405</v>
       </c>
     </row>
     <row r="114">
@@ -3601,7 +3601,7 @@
         <v>13</v>
       </c>
       <c r="H114" t="n">
-        <v>11.63751993311997</v>
+        <v>11.63753497768943</v>
       </c>
     </row>
     <row r="115">
@@ -3629,7 +3629,7 @@
         <v>13</v>
       </c>
       <c r="H115" t="n">
-        <v>10.48847859519972</v>
+        <v>10.4884629168214</v>
       </c>
     </row>
     <row r="116">
@@ -3657,7 +3657,7 @@
         <v>13</v>
       </c>
       <c r="H116" t="n">
-        <v>10.13263749093813</v>
+        <v>10.13270331788144</v>
       </c>
     </row>
     <row r="117">
@@ -3685,7 +3685,7 @@
         <v>15</v>
       </c>
       <c r="H117" t="n">
-        <v>12.55650117083812</v>
+        <v>12.55649137625644</v>
       </c>
     </row>
     <row r="118">
@@ -3713,7 +3713,7 @@
         <v>12</v>
       </c>
       <c r="H118" t="n">
-        <v>10.94033690895228</v>
+        <v>10.94036063504949</v>
       </c>
     </row>
     <row r="119">
@@ -3741,7 +3741,7 @@
         <v>12</v>
       </c>
       <c r="H119" t="n">
-        <v>9.389136771105711</v>
+        <v>9.389121478485599</v>
       </c>
     </row>
     <row r="120">
@@ -3769,7 +3769,7 @@
         <v>13</v>
       </c>
       <c r="H120" t="n">
-        <v>13.18872007096653</v>
+        <v>13.18877413425333</v>
       </c>
     </row>
     <row r="121">
@@ -3797,7 +3797,7 @@
         <v>13</v>
       </c>
       <c r="H121" t="n">
-        <v>13.85220101599205</v>
+        <v>13.85225006442233</v>
       </c>
     </row>
     <row r="122">
@@ -3853,7 +3853,7 @@
         <v>13</v>
       </c>
       <c r="H123" t="n">
-        <v>10.61913966774932</v>
+        <v>10.61911733405798</v>
       </c>
     </row>
     <row r="124">
@@ -3961,7 +3961,7 @@
         <v>13</v>
       </c>
       <c r="H127" t="n">
-        <v>11.63751993311997</v>
+        <v>11.63753497768943</v>
       </c>
     </row>
     <row r="128">
@@ -4017,7 +4017,7 @@
         <v>13</v>
       </c>
       <c r="H129" t="n">
-        <v>11.50685886057036</v>
+        <v>11.50688056045286</v>
       </c>
     </row>
     <row r="130">
@@ -4045,7 +4045,7 @@
         <v>12</v>
       </c>
       <c r="H130" t="n">
-        <v>6.202393118527707</v>
+        <v>6.202396244877139</v>
       </c>
     </row>
     <row r="131">
@@ -4097,7 +4097,7 @@
         <v>12</v>
       </c>
       <c r="H132" t="n">
-        <v>10.40751703647636</v>
+        <v>10.40753912211706</v>
       </c>
     </row>
     <row r="133">
@@ -4125,7 +4125,7 @@
         <v>13</v>
       </c>
       <c r="H133" t="n">
-        <v>11.15195954022524</v>
+        <v>11.15193884699041</v>
       </c>
     </row>
     <row r="134">
@@ -4153,7 +4153,7 @@
         <v>13</v>
       </c>
       <c r="H134" t="n">
-        <v>11.50685886057036</v>
+        <v>11.50688056045286</v>
       </c>
     </row>
   </sheetData>
